--- a/£IAG.xlsx
+++ b/£IAG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35F26E8-FF30-4F23-B125-F056C7AE77FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F585F75B-E8F6-4693-86D4-6FDDB15022E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{40B1BB27-4A71-445F-B4C8-16566CF261B2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>£IAG</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>(EUR millions)</t>
+  </si>
+  <si>
+    <t>IAG could attempt to buy rivals EasyJet or Portgual's TAP as per report from The Times</t>
+  </si>
+  <si>
+    <t>Shares in EZJ jumped 7-9%</t>
+  </si>
+  <si>
+    <t>Luis Gallego</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +154,21 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -264,10 +288,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -282,13 +307,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,33 +315,62 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -343,16 +390,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>374237</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,8 +429,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4267200" y="161925"/>
-          <a:ext cx="3422237" cy="657225"/>
+          <a:off x="3695701" y="161925"/>
+          <a:ext cx="1657350" cy="318287"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE6FB0B-EB94-4ABB-93B3-9D10909614F2}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="A2:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -713,56 +760,113 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="F5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>1.2050000000000001</v>
+        <v>1.1198999999999999</v>
       </c>
       <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="27"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>4950</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="29">
+        <v>44865</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="9">
         <f>C6*C7</f>
-        <v>5964.75</v>
+        <v>5543.5049999999992</v>
       </c>
       <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="27"/>
+      <c r="G8" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -770,8 +874,21 @@
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="27"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -779,8 +896,21 @@
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="27"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -789,73 +919,254 @@
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="27"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="10">
         <f>C8-C11</f>
-        <v>5964.75</v>
+        <v>5543.5049999999992</v>
       </c>
       <c r="D12" s="8"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13" s="27"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="27"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="13" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="36">
+        <v>44075</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="13" t="s">
+      <c r="C16" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="17"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="12"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="17"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="38"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="17"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F19" s="27"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="17"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="22" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="17"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="15"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="22" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="12"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="17"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="12"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="17"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="13"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="F5:R5"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
@@ -866,8 +1177,11 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{365A7244-0133-4E37-95EE-3E2F9E6F2AA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -879,7 +1193,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -891,7 +1205,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="11" t="s">

--- a/£IAG.xlsx
+++ b/£IAG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F585F75B-E8F6-4693-86D4-6FDDB15022E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD37FFE-28B7-7348-BED1-8137C810836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{40B1BB27-4A71-445F-B4C8-16566CF261B2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18140" xr2:uid="{40B1BB27-4A71-445F-B4C8-16566CF261B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,22 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>£IAG</t>
   </si>
@@ -114,6 +124,27 @@
   </si>
   <si>
     <t>Luis Gallego</t>
+  </si>
+  <si>
+    <t>Company Profile</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>London/Madrid</t>
   </si>
 </sst>
 </file>
@@ -292,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -319,25 +350,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -349,23 +365,59 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -749,51 +801,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE6FB0B-EB94-4ABB-93B3-9D10909614F2}">
-  <dimension ref="A2:R23"/>
+  <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:D16"/>
+      <selection activeCell="C29" sqref="C29:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="20" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="F5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="32"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -801,7 +853,7 @@
         <v>1.1198999999999999</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
@@ -815,7 +867,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -823,10 +875,10 @@
         <v>4950</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="29">
+      <c r="F7" s="24">
         <v>44865</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>26</v>
       </c>
       <c r="H7" s="16"/>
@@ -841,7 +893,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -850,8 +902,8 @@
         <v>5543.5049999999992</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="31" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="16"/>
@@ -866,7 +918,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -874,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -888,7 +940,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -896,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
@@ -910,7 +962,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -919,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
@@ -933,7 +985,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -942,7 +994,7 @@
         <v>5543.5049999999992</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
@@ -956,8 +1008,8 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F13" s="27"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F13" s="22"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
@@ -971,8 +1023,8 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F14" s="27"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F14" s="22"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
@@ -986,13 +1038,13 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="20" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="F15" s="27"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
@@ -1006,18 +1058,18 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="27">
         <v>44075</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="33"/>
-      <c r="F16" s="27"/>
+      <c r="D16" s="38"/>
+      <c r="F16" s="22"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
@@ -1031,13 +1083,13 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="F17" s="27"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38"/>
+      <c r="F17" s="22"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
@@ -1051,11 +1103,11 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="38"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="F18" s="27"/>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B18" s="29"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="F18" s="22"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
@@ -1069,8 +1121,8 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="F19" s="27"/>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="F19" s="22"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
@@ -1084,13 +1136,13 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="17"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="20" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-      <c r="F20" s="27"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
@@ -1104,13 +1156,13 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="17"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B21" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="24"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="12"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="22"/>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
@@ -1124,13 +1176,13 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="24"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="12"/>
-      <c r="F22" s="27"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
@@ -1144,13 +1196,13 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="17"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B23" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="13"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -1164,8 +1216,65 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
     </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B26" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B27" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="38"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B28" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="41">
+        <v>2011</v>
+      </c>
+      <c r="D28" s="38"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B29" s="20"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="38"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B30" s="20"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="38"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B32" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="45"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="F5:R5"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:C21"/>
@@ -1196,14 +1305,14 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>25</v>
@@ -1243,9 +1352,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£IAG.xlsx
+++ b/£IAG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD37FFE-28B7-7348-BED1-8137C810836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2F776-D9C1-412B-B23C-111B780573A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18140" xr2:uid="{40B1BB27-4A71-445F-B4C8-16566CF261B2}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18135" xr2:uid="{40B1BB27-4A71-445F-B4C8-16566CF261B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>£IAG</t>
   </si>
@@ -145,6 +135,9 @@
   </si>
   <si>
     <t>London/Madrid</t>
+  </si>
+  <si>
+    <t>IPO</t>
   </si>
 </sst>
 </file>
@@ -372,6 +365,18 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -381,6 +386,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -396,28 +407,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,48 +797,48 @@
   <dimension ref="A2:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:D29"/>
+      <selection activeCell="C30" sqref="C30:D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="30" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="F5" s="30" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="F5" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="32"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="36"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -867,7 +860,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -893,7 +886,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -918,7 +911,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -940,7 +933,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -962,7 +955,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -985,7 +978,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1008,7 +1001,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F13" s="22"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1023,7 +1016,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F14" s="22"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1038,12 +1031,12 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B15" s="30" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
       <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1058,14 +1051,14 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>44075</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="43" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="38"/>
@@ -1083,11 +1076,11 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="38"/>
       <c r="F17" s="22"/>
       <c r="G17" s="16"/>
@@ -1103,10 +1096,10 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="17"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="45"/>
       <c r="F18" s="22"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1121,7 +1114,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="F19" s="22"/>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
@@ -1136,12 +1129,12 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="17"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B20" s="30" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
       <c r="F20" s="22"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -1156,11 +1149,11 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="17"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="34"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="12"/>
       <c r="F21" s="22"/>
       <c r="G21" s="16"/>
@@ -1176,11 +1169,11 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="34"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="12"/>
       <c r="F22" s="22"/>
       <c r="G22" s="16"/>
@@ -1196,11 +1189,11 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="17"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B23" s="35" t="s">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="42"/>
       <c r="D23" s="13"/>
       <c r="F23" s="23"/>
       <c r="G23" s="18"/>
@@ -1216,65 +1209,63 @@
       <c r="Q23" s="18"/>
       <c r="R23" s="19"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="C27" s="37" t="s">
         <v>35</v>
       </c>
       <c r="D27" s="38"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="37">
         <v>2011</v>
       </c>
       <c r="D28" s="38"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B29" s="20"/>
-      <c r="C29" s="41"/>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B29" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="37">
+        <v>2011</v>
+      </c>
       <c r="D29" s="38"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
-      <c r="C30" s="41"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="38"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="45"/>
+      <c r="D32" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="F5:R5"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:C21"/>
@@ -1285,6 +1276,12 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{365A7244-0133-4E37-95EE-3E2F9E6F2AA9}"/>
@@ -1305,14 +1302,14 @@
       <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="15" t="s">
         <v>25</v>
@@ -1352,9 +1349,9 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/£IAG.xlsx
+++ b/£IAG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2F776-D9C1-412B-B23C-111B780573A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC67880-C8B2-45F1-9234-38DCD527C17C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18135" xr2:uid="{40B1BB27-4A71-445F-B4C8-16566CF261B2}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="51">
   <si>
     <t>£IAG</t>
   </si>
@@ -138,6 +138,48 @@
   </si>
   <si>
     <t>IPO</t>
+  </si>
+  <si>
+    <t>Airlines</t>
+  </si>
+  <si>
+    <t>Aer Lingus</t>
+  </si>
+  <si>
+    <t>British Airways</t>
+  </si>
+  <si>
+    <t>Iberia</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Vueling</t>
+  </si>
+  <si>
+    <t>IAG Loyalty</t>
+  </si>
+  <si>
+    <t>IAG Cargo</t>
+  </si>
+  <si>
+    <t>IAG GBS</t>
+  </si>
+  <si>
+    <t>12.2,7.1</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BA Cityflyer</t>
+  </si>
+  <si>
+    <t>9.3,12.8</t>
+  </si>
+  <si>
+    <t>Average Fleet Age</t>
   </si>
 </sst>
 </file>
@@ -147,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +238,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -223,7 +280,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -311,12 +368,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,47 +465,62 @@
     <xf numFmtId="16" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -794,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE6FB0B-EB94-4ABB-93B3-9D10909614F2}">
-  <dimension ref="A2:R32"/>
+  <dimension ref="A2:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:D30"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -805,40 +914,51 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="36"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34"/>
+      <c r="T5" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="33"/>
+      <c r="V5" s="34"/>
+      <c r="Y5" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -859,8 +979,22 @@
       <c r="P6" s="16"/>
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="52"/>
+      <c r="V6" s="17">
+        <f>12.2+7.1</f>
+        <v>19.299999999999997</v>
+      </c>
+      <c r="Y6" s="49">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
@@ -885,8 +1019,21 @@
       <c r="P7" s="16"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="52"/>
+      <c r="V7" s="17">
+        <v>13.5</v>
+      </c>
+      <c r="Y7" s="49">
+        <v>11.1</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -910,8 +1057,21 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T8" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="U8" s="55"/>
+      <c r="V8" s="54">
+        <v>11.1</v>
+      </c>
+      <c r="Y8" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -932,8 +1092,22 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="52"/>
+      <c r="V9" s="17">
+        <f>9.3+12.8</f>
+        <v>22.1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -954,8 +1128,21 @@
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="52"/>
+      <c r="V10" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -977,8 +1164,15 @@
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" s="52"/>
+      <c r="V11" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -1000,8 +1194,16 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T12" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="U12" s="51"/>
+      <c r="V12" s="53">
+        <f>AVERAGE(V6:V11)</f>
+        <v>13.233333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F13" s="22"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
@@ -1015,8 +1217,11 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T13" s="46"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F14" s="22"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
@@ -1030,13 +1235,18 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
+      <c r="T14" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B15" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="F15" s="22"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
@@ -1050,18 +1260,23 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="T15" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="U15" s="5"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="27">
         <v>44075</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="38"/>
+      <c r="D16" s="40"/>
       <c r="F16" s="22"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
@@ -1075,13 +1290,18 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
+      <c r="T16" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="48"/>
+      <c r="V16" s="8"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
       <c r="F17" s="22"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
@@ -1098,8 +1318,8 @@
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="29"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
       <c r="F18" s="22"/>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
@@ -1130,11 +1350,11 @@
       <c r="R19" s="17"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="F20" s="22"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -1150,10 +1370,10 @@
       <c r="R20" s="17"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="12"/>
       <c r="F21" s="22"/>
       <c r="G21" s="16"/>
@@ -1170,10 +1390,10 @@
       <c r="R21" s="17"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="40"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="12"/>
       <c r="F22" s="22"/>
       <c r="G22" s="16"/>
@@ -1190,10 +1410,10 @@
       <c r="R22" s="17"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="13"/>
       <c r="F23" s="23"/>
       <c r="G23" s="18"/>
@@ -1210,43 +1430,43 @@
       <c r="R23" s="19"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="38"/>
+      <c r="D27" s="40"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B28" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="45">
         <v>2011</v>
       </c>
-      <c r="D28" s="38"/>
+      <c r="D28" s="40"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="45">
         <v>2011</v>
       </c>
-      <c r="D29" s="38"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="20"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="40"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="20" t="s">
@@ -1259,13 +1479,21 @@
       <c r="B32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="33"/>
+      <c r="D32" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="F5:R5"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:C21"/>
@@ -1276,12 +1504,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G7" r:id="rId1" xr:uid="{365A7244-0133-4E37-95EE-3E2F9E6F2AA9}"/>
